--- a/REGULAR/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/DIMARANAN, GREGORIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C64BF6A-AFED-47AB-AA93-27BD2785D7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17F3AD6-E5A2-4922-880E-C858B54822EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
   <si>
     <t>PERIOD</t>
   </si>
@@ -362,6 +362,15 @@
   </si>
   <si>
     <t>1/9-13,16-20</t>
+  </si>
+  <si>
+    <t>3/16-23/2023</t>
+  </si>
+  <si>
+    <t>SL(9-0-0)</t>
+  </si>
+  <si>
+    <t>3/24 - 4/5/2023</t>
   </si>
 </sst>
 </file>
@@ -2769,7 +2778,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K177" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K178" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3147,12 +3156,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K177"/>
+  <dimension ref="A2:K178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A122" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+      <selection pane="bottomLeft" activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3313,7 +3322,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>112.73699999999999</v>
+        <v>113.98699999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3323,7 +3332,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>114.37</v>
+        <v>100.62</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6003,25 +6012,33 @@
       <c r="A132" s="40">
         <v>44986</v>
       </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
+      <c r="B132" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="39"/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H132" s="39">
+        <v>6</v>
+      </c>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
+      <c r="K132" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B133" s="20"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
       <c r="E133" s="9"/>
@@ -6030,14 +6047,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H133" s="39"/>
+      <c r="H133" s="39">
+        <v>9</v>
+      </c>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
+      <c r="K133" s="20" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -6055,7 +6076,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -6073,7 +6094,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -6091,7 +6112,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -6109,7 +6130,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -6127,7 +6148,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -6145,7 +6166,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -6163,7 +6184,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -6181,7 +6202,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -6199,7 +6220,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6217,7 +6238,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -6235,7 +6256,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -6253,7 +6274,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -6271,7 +6292,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -6289,7 +6310,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -6307,7 +6328,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6325,7 +6346,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6343,7 +6364,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6361,7 +6382,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6379,7 +6400,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6397,7 +6418,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6415,7 +6436,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6433,7 +6454,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6451,7 +6472,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6469,7 +6490,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6487,7 +6508,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6505,7 +6526,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6523,7 +6544,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6541,7 +6562,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6559,7 +6580,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6577,7 +6598,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6595,7 +6616,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6613,7 +6634,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6631,7 +6652,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6649,7 +6670,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6667,7 +6688,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6684,7 +6705,9 @@
       <c r="K169" s="20"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="40"/>
+      <c r="A170" s="40">
+        <v>46113</v>
+      </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
       <c r="D170" s="39"/>
@@ -6796,20 +6819,36 @@
       <c r="K176" s="20"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="41"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="43"/>
+      <c r="A177" s="40"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="39"/>
       <c r="E177" s="9"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H177" s="43"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H177" s="39"/>
       <c r="I177" s="9"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="15"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="20"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="41"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="43"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H178" s="43"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/DIMARANAN, GREGORIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17F3AD6-E5A2-4922-880E-C858B54822EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BE3DF2-1656-4E92-8167-C109B3CAC275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
   <si>
     <t>PERIOD</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>3/24 - 4/5/2023</t>
+  </si>
+  <si>
+    <t>SL(11-0-0)</t>
+  </si>
+  <si>
+    <t>2/23,27,28, 3/1-10/2023</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2784,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K178" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K179" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3156,12 +3162,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K178"/>
+  <dimension ref="A2:K179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A122" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A128" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="I134" sqref="I134"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6009,58 +6015,56 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" s="13">
-        <v>1.25</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C132" s="13"/>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H132" s="39">
-        <v>6</v>
-      </c>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20" t="s">
-        <v>109</v>
+      <c r="K132" s="49" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>44986</v>
+      </c>
       <c r="B133" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C133" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D133" s="39"/>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H133" s="39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B134" s="20"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
       <c r="E134" s="9"/>
@@ -6069,14 +6073,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H134" s="39"/>
+      <c r="H134" s="39">
+        <v>9</v>
+      </c>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
+      <c r="K134" s="20" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -6094,7 +6102,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -6112,7 +6120,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -6130,7 +6138,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -6148,7 +6156,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -6166,7 +6174,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -6184,7 +6192,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -6202,7 +6210,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -6220,7 +6228,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6238,7 +6246,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -6256,7 +6264,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -6274,7 +6282,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -6292,7 +6300,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -6310,7 +6318,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -6328,7 +6336,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6346,7 +6354,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6364,7 +6372,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6382,7 +6390,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6400,7 +6408,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6418,7 +6426,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6436,7 +6444,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6454,7 +6462,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6472,7 +6480,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6490,7 +6498,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6508,7 +6516,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6526,7 +6534,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6544,7 +6552,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6562,7 +6570,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6580,7 +6588,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6598,7 +6606,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6616,7 +6624,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6634,7 +6642,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6652,7 +6660,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6670,7 +6678,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6688,7 +6696,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6706,7 +6714,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6723,7 +6731,9 @@
       <c r="K170" s="20"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="40"/>
+      <c r="A171" s="40">
+        <v>46113</v>
+      </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
       <c r="D171" s="39"/>
@@ -6835,20 +6845,36 @@
       <c r="K177" s="20"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="41"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="43"/>
+      <c r="A178" s="40"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="39"/>
       <c r="E178" s="9"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H178" s="43"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H178" s="39"/>
       <c r="I178" s="9"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="15"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="20"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="41"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H179" s="43"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
